--- a/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/qwen_labazhou_evaluated.xlsx
+++ b/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/qwen_labazhou_evaluated.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,7 +481,11 @@
           <t>同学们，今天我们继续来学习第二课腊八粥，请大家准备好听写，</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>学生听写</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“请大家准备好听写”体现出老师发起了一个开展课堂活动的指令，其中，“请大家”体现出这个课堂活动是由全体学生共同参与的。进一步地，“准备好听写”体现出老师要求学生做好准备，即将进行听写的活动。综合上述整段话的分析过程，这个课堂活动是学生集体参与的听写活动，符合”学生听写“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生听写”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -489,7 +493,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +512,11 @@
           <t>褐色筷子碗盏，褐色筷子碗展，</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“褐色筷子碗盏，褐色筷子碗展”描述的是一种物品或者场景的描述，没有明确的课堂活动指令。因此，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -535,7 +543,11 @@
           <t>下面呢我们来走进课文，来学习腊八粥。这篇课文请同学们看第一关，读一读，反复出声，朗读二至八自然段边读边想象巴尔的采样时间两分钟好，开始，</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“下面呢我们来走进课文，来学习腊八粥”体现出老师发起了一个开展课堂活动的指令，引导学生进入新的学习主题。接着，“这篇课文请同学们看第一关，读一读，反复出声，朗读二至八自然段”进一步明确了课堂活动的具体任务，要求学生大声朗读指定的段落，这种朗读活动通常是整齐划一地进行的。最后，“边读边想象巴尔的采样时间两分钟好，开始”中，“边读边想象”要求学生在朗读的同时进行思考，而“开始”表明老师发出了开始执行该活动的指令。
@@ -567,7 +579,11 @@
           <t>了解了巴儿在等待的喝粥的时候的那个样。那下面请大家快速的画出八儿的语言动作和神态描写之后，小组进行交流，时间是两分钟，</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>独立练习或小组学习</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“请大家快速的画出八儿的语言动作和神态描写”体现出老师发起了一个开展课堂活动的指令，其中，“请大家”体现出这个课堂活动是由全体学生共同参与的。进一步地，“快速的画出”体现出老师要求学生进行绘画活动，而“八儿的语言动作和神态描写”是绘画的主题，这是一项需要学生独立完成的任务。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。接下来，“小组进行交流”这部分，老师要求学生在完成绘画后，以小组的形式进行交流，这符合“小组学习”的特征。最后，“时间是两分钟”说明了活动的时间限制，意味着活动即将开始。
@@ -595,7 +611,11 @@
           <t>你要标注清楚，你找到的是哪一种。然后你在汇报的时候，你一看就知道了，要不汇报的时候还得现想好了，那下面谁来给咱们读一读，你找到的关于巴儿的神态语言动作的描写呢，</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你找到的关于巴儿的神态语言动作的描写呢”体现出老师发起了一个开展课堂活动的指令，邀请一个学生来读出他找到的相关描写。这里的“你”可能指的是特定的学生或者是指定的一位学生，要求他/她朗读自己找到的内容，符合“个体发言”的特征。而“要不汇报的时候还得现想好了”这句话则暗示了之前有一个查找或分析的活动，学生需要整理好思路才能进行汇报，但这个活动已经完成，即将进入“个体发言”的阶段。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -603,7 +623,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +642,11 @@
           <t>没有让大家分析这个描写，体现出什么嗯执掌他的神态语言和动作就可以了。还有吗？这里还有我来为你补充啊，来吧，东哥嗯请大家把目光集中在第九自然段妈妈等一下，</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“没有让大家分析这个描写”体现出老师可能在之前已经安排了一个分析活动，但此时老师不再要求学生进行这项活动。“体现出什么嗯执掌他的神态语言和动作就可以了”这部分可能是老师对之前分析活动的总结，指出分析的重点在于人物的神态、语言和动作。接下来，“还有吗？”暗示老师在询问学生是否有其他补充或者理解。然后，“这里还有我来为你补充啊”表明老师打算提供额外的信息或者补充。最后，“来吧，东哥嗯请大家把目光集中在第九自然段妈妈等一下”这部分，老师似乎在邀请一位叫“东哥”的学生发言，并要求全班同学关注第九自然段的内容，但“妈妈等一下”可能是一个口语化的表达，或者是一个口误，没有明确的课堂活动指示。综合上述整段话的分析过程，虽然老师邀请了东哥发言，但没有明确的课堂活动类别，同时，由于“妈妈等一下”可能不是课堂指令，所以无法确定课堂活动的类别。所以，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -649,7 +673,11 @@
           <t>在第二自然段里。还有一句话嗯嗯，</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“在第二自然段里”体现出老师引导学生关注课文的某个特定部分，即第二自然段。然而，话语中并没有明确的课堂活动指令，如“讨论”、“回答问题”、“展示”等，也没有提到学生需要做什么具体的行为，比如发言、书写或听写。因此，这段话无法确定将会进行哪种具体的课堂活动。
@@ -676,7 +704,11 @@
           <t>你认为他应该是怎样的一种心情？你用你觉得合适的方法把这段对话呃，巴尔的这个和妈妈对话读出来，只读对话啊，谁来试着读一读，啊，露西，</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你认为他应该是怎样的一种心情？”体现出老师发起了一个开展课堂活动的指令，邀请学生表达对人物心情的见解，属于口头表达活动，符合“个体发言”的特征。接下来，“你用你觉得合适的方法把这段对话呃，巴尔的这个和妈妈对话读出来，只读对话啊”这部分，老师要求学生以自己的方式朗读特定的对话内容，这属于朗读活动，符合“个体发言”的特征。最后，“谁来试着读一读，啊，露西”这部分，老师邀请露西来尝试朗读，这同样符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -688,7 +720,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -707,7 +739,11 @@
           <t>妈妈要到什么时候才要到夜里？那我饿了，饿了也得到太阳落下时才准才准吃。跟他一样。哎，你试着读一读，不用同学举手自己叠读一读。妈妈妈，</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你试着读一读，不用同学举手自己叠读一读”体现出老师发起了一个开展课堂活动的指令。其中，“你试着读一读”表明老师要求一个学生尝试朗读，而“不用同学举手自己叠读一读”则可能是指老师要求学生自己尝试朗读，而不是通过举手的方式。这里的“自己叠读一读”可能是“自己读一读”的口误，意思是让学生自己朗读。综合上述整段话的分析过程，这个课堂活动是由一个学生参与的朗读活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -734,7 +770,11 @@
           <t>女同学读一下妈妈，只读对话。好，妈妈开始，</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>学生齐读</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“女同学读一下妈妈”体现出老师发起了一个开展课堂活动的指令，其中“女同学”指定了活动的参与对象，即女生群体；“读一下妈妈”中的“读”字表明了这是一个朗读活动，而“妈妈”可能是对话中的一部分。接着，“只读对话”进一步明确了朗读的内容限制为对话部分。综合上述整段话的分析过程，这个课堂活动是由女同学群体参与、且整齐划一地朗读对话内容，符合“学生齐读”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐读”。因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -742,7 +782,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -761,7 +801,11 @@
           <t>那么我们刚刚啊是用自己所理解的巴尔此时的状态来读了这个文字。那么下面呢我们来体会一下巴尔究竟是怎样的一种心理呢？请大家完成学习单上的第二题，</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“请大家完成学习单上的第二题”体现出老师发起了一个开展课堂活动的指令。其中，“请大家”体现出这个课堂活动是由全体学生共同参与的。进一步地，“完成学习单上的第二题”体现出老师要求学生独立完成学习单上的题目，这通常是一个需要学生独自思考并书写的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -769,7 +813,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -788,7 +832,11 @@
           <t>这个是王珂洁写的那先请王珂洁说一说，这是他的，一会儿你觉得不全的，你可以补充你根据哪些句子能够找到这些特点呢，我根据拿起书把书拿下，我根据八人的语言描写写出来了呃，</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“这个是王珂洁写的那先请王珂洁说一说”体现出老师发起了一个开展课堂活动的指令，邀请“王珂洁”来分享她的想法或工作成果。进一步地，“一会儿你觉得不全的，你可以补充”这句话是老师鼓励其他学生在王珂洁分享后，如果有遗漏或者补充，可以提出自己的观点。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。同时，由于老师还邀请其他学生在适当的时候补充，这可能意味着在王珂洁发言后，其他学生也将参与到讨论中，虽然这里没有明确指定是小组活动还是全体学生参与，但由于涉及到其他学生的互动，可以认为是“多人展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”、“多人展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -800,7 +848,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -819,7 +867,11 @@
           <t>我要补充的，有没有？那这是一种什么样的心理渴望和期盼，对不还有，</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师的话语“我要补充的，有没有？”是询问学生是否有其他观点或信息要补充，这可能引导学生进行个体发言。接着的“那这是一种什么样的心理渴望和期盼，对不还有”是在引导学生思考并可能分享他们的理解和想法，这也符合个体发言的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -846,7 +898,11 @@
           <t>还有补充吗，这也这也证明了巴尔对腊八州的好奇。</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师的话语是对之前内容的补充说明，没有明显的课堂活动指令。因此，无法识别出任何预设的课堂活动类别。
@@ -854,7 +910,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -873,7 +929,11 @@
           <t>已经能够体现出好奇了。你找到没？你哪句话看老师，我知道，你可以找别人帮你补是吧？因为那个，</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，"你找到没？"和"你哪句话看老师，我知道，你可以找别人帮你补是吧？"体现了老师在询问学生是否找到了相关的内容，并且建议学生如果需要帮助可以找其他人协助。这里没有明确的课堂活动指令，如“齐读”、“发言”或“小组学习”，而是老师在与一个学生进行一对一的交流，鼓励学生寻求帮助。综合分析，这段话语中没有明显的预设课堂活动类别。
@@ -900,7 +960,11 @@
           <t>因好奇而急于想尝到这奇怪的东西罢了。</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，没有老师发起的课堂活动指令，也没有提及学生要做什么活动。老师的话语更像是在描述或解释某种情况，而不是组织课堂活动。所以，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -927,7 +991,11 @@
           <t>有没有读出这种着急的情绪呢？我们在带着这种着急着急的心理，在再来读一读他和妈妈的对话，来，谁来试着读一读，搞谁啊，妈妈要到什么时候才要到夜里？</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“有没有读出这种着急的情绪呢？”体现出老师发起了一个开展课堂活动的指令，要求学生在朗读时体会并表达着急的情绪。接下来，“我们在带着这种着急着急的心理，在再来读一读他和妈妈的对话”进一步说明了老师希望学生在朗读时融入这种情绪，这涉及到对文本的理解和情感的表达，通常表现为学生个人的朗读表演。然后，“来，谁来试着读一读”邀请一个学生来尝试朗读，体现了“个体发言”的特征。最后，“搞谁啊，妈妈要到什么时候才要到夜里？”是老师在模拟对话，指导学生如何朗读。
@@ -936,7 +1004,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -955,7 +1023,11 @@
           <t>你再来读再带入。这个时候你是不是就更能体会到他那种心情啊？那谁再来试着读一读，就我们找两位同学来读，王美林和吕涵，王美林读妈妈李雨涵读巴儿，妈妈要到什么时候才要到夜里？</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>多人展示</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你再来读再带入”体现出老师邀请一位学生再次朗读并投入情感。接着，“那谁再来试着读一读，就我们找两位同学来读，王美林和吕涵”体现出老师邀请两位特定的同学，王美林和吕涵，进行朗读活动。综合上述整段话的分析过程，这个课堂活动是由两位学生执行、且是一种口述活动，符合“个体展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -982,7 +1054,11 @@
           <t>然后呢来理解到了人物的心理，对不对？那我们就试着用这种方法继续学习，九继续学习，九到十二自然段，请大家快速的找出，并想一想，巴尔此时的，</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“请大家快速的找出，并想一想”体现出老师发起了一个开展课堂活动的指令。首先，“请大家”体现出这个课堂活动是由全体学生共同参与的。进一步地，“快速的找出，并想一想”中的“找出”和“想一想”分别代表查找信息和思考问题，这两个活动通常是学生独立完成的，符合“独立练习”的特征。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -994,7 +1070,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1013,7 +1089,11 @@
           <t>也想到了。而此时的心里，那么你觉得巴尔此时此刻的语言应该是用一种怎样的情绪来读出来来读出来的，你来给他读，</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你来给他读”体现出老师发起了一个开展课堂活动的指令，邀请一个学生来朗读。结合前文的“心里，那么你觉得巴尔此时此刻的语言应该是用一种怎样的情绪来读出来”，可以推断出老师希望这个学生能够根据对巴尔心理的理解，用适当的情绪来朗读。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种带有情感表现的朗读活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1025,7 +1105,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1044,7 +1124,11 @@
           <t>还有问号，那你在读的时候应该注意，那巴尔此时到底是一种怎样的心理？咱们来自己写一写，看衣袋上的第三，刚刚同学们已经找不到了，对吧？好，现在就把它写出来就可以了。嗯，</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”咱们来自己写一写“体现出老师发起了一个开展课堂活动的指令，其中，”咱们“体现了这个课堂活动是全体学生共同参与的。进一步地，”看衣袋上的第三“和”刚刚同学们已经找不到了，对吧“，这部分可能是指定了学生需要关注的内容，而”现在就把它写出来就可以了“明确指出学生需要写的活动。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的书写活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1052,7 +1136,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1071,7 +1155,11 @@
           <t>你可以画好标上序号，然后你自己在这个表格里只写序号。</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你可以画好标上序号”体现出老师给出了一个任务，要求学生完成画图并标注序号的动作，这个动作可能是学生在纸上或白板上的操作，不涉及集体性的课堂活动。进一步地，“然后你自己在这个表格里只写序号”中的“你自己”表明这个任务是针对单个学生，而非全班学生，而且是要求学生在表格中写序号，这个活动更偏向于个人操作，而非集体性的活动。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种动手操作活动，符合“个体展示”或者“独立练习”的特征，但由于是学生个人在表格中写序号，可能更倾向于个人操作，即“独立练习”。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1098,7 +1186,11 @@
           <t>其实这两段它主要就是语言描写，那么通过这个语言描写，能体现出巴尔的什么样的一种心理和他的怎样的一种形象。来高阳，你说说你你是怎么写的？我是从第九自然段和第十一自然段来看的。</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“来高阳，你说说你你是怎么写的？”体现出老师发起了一个开展课堂活动的指令，邀请“高阳”这个学生分享自己的观点或者写作内容。结合前文“通过这个语言描写，能体现出巴尔的什么样的一种心理和他的怎样的一种形象”，可以推测老师可能要求学生分析文本中巴尔的心理和形象。高阳被点名，意味着他将代表自己分享分析结果，这符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1106,7 +1198,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1125,7 +1217,11 @@
           <t>嗯，八儿的心里除了想自己多吃几碗，</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师的话语中没有明显的课堂活动指令，比如邀请学生发言、进行小组活动、独立练习等。因此，无法从这段话中识别出任何预设的课堂活动类别。
@@ -1152,7 +1248,11 @@
           <t>那为啥还妈妈你也吃三碗呢，那怎么不说，你们都吃一碗吧，让他妈是小孩儿，没想到不依赖妈妈是吗，你吃三碗，就你多吃这种事儿，他为什么让妈妈也跟他一起吃三碗，能想到吗？如果他妈要不吃三碗的话，</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“能想到吗？”体现出老师发起了一个开展课堂活动的指令，邀请学生思考问题。综合这段话的分析过程，这个课堂活动是由学生独自进行的思考活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1179,7 +1279,11 @@
           <t>不能显得我吃的，怎么的是我这心理啊，所以他这种孩子这种天真像高阳写的是一种小聪明，那么老是用一个词来表述什么是狡猾吗？狡猾，</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“不能显得我吃的，怎么的是我这心理啊，所以他这种孩子这种天真像高阳写的是一种小聪明，那么老是用一个词来表述什么是狡猾吗？狡猾”这部分，老师的话语中并没有明显的课堂活动指令，而是老师在讲解或引导学生理解某种概念或情境。没有明确指出学生需要做什么，如发言、展示、练习等。因此，无法识别出任何预设的课堂活动类别。
@@ -1206,7 +1310,11 @@
           <t>那么天真有了。小霞，有了那巴尔让爸爸的大哥找了一个理由，他们不吃甜的，我能吃三碗。因为我爱吃，对不那么说明他想多吃，这是一种什么呀？贪心贪怎么贪贪心，</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“那么天真有了。小霞，有了那巴尔让爸爸的大哥找了一个理由，他们不吃甜的，我能吃三碗。因为我爱吃，对不那么说明他想多吃，这是一种什么呀？贪心贪怎么贪贪心”这部分内容，老师是在讲述一个故事，并通过提问引导学生理解和分析故事中人物的心理特征。提问“这是一种什么呀？贪心贪怎么贪贪心”是让学生思考并回答有关“贪心”的概念和表现。这个过程符合“个体发言”的特征，老师邀请学生通过口头表达来分享他们的理解。
@@ -1233,7 +1341,11 @@
           <t>咱们看哈说的是挺好，和妈妈俩人分，这儿呢，和妈妈俩人分，</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“咱们看哈说的是挺好，和妈妈俩人分，这儿呢，和妈妈俩人分”这段话并没有明确的课堂活动指示，而是老师在评价或引导学生理解某个话题。没有提及学生需要做什么活动，如发言、展示、练习或书写等。因此，从这段话中无法识别出任何预设的课堂活动类别。
@@ -1260,7 +1372,11 @@
           <t>你既能带这种天真可爱，还能读出他那种啥呀？护食贪心护食的那种，对你怎么读，谁来试试，既能表现出他的天真可爱，来还得表现出那种贪心来段子涵，妈妈等一下，我要吃三碗，</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“谁来试试”体现出老师发起了一个开展课堂活动的指令，邀请一个学生尝试朗读。进一步地，”既能表现出他的天真可爱，来还得表现出那种贪心来段子涵“，这部分内容指定了学生段子涵，要求他朗读时既要表现出天真可爱，又要表现出贪心的情感。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种需要展现多种情感的朗读活动，符合“个体展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1287,7 +1403,11 @@
           <t>你看他跟那个语气，谁才试着学他的语气再读一遍，我觉得他读的很好，啊，要不然我吃三碗半，你看这种语气谁来试试，再来一次，回肠吧。我要吃三碗，我们只准大哥吃一碗，</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“谁来试试”体现出老师发起了一个开展课堂活动的指令，邀请一个学生尝试模仿某种语气来朗读。而“再来一次”和“谁才试着学他的语气再读一遍”都表明老师希望学生尝试重复并模仿之前的朗读，这通常涉及到朗读或模仿的课堂活动。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1295,7 +1415,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1314,7 +1434,11 @@
           <t>咱们一定要注意在不同的这种语气里边，它的这个状态是不完全一样的，但是读的已经很好了啊。好，那么我们读出了巴儿的这种贪心的这种小孩的天真和狡。那么接下来我们再来看看巴儿又发生了什么样的事。</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”那么接下来我们再来看看巴儿又发生了什么样的事“体现出老师发起了一个开展课堂活动的指令。这句话中，“我们再来看看”体现出老师邀请全体学生共同参与，而“巴儿又发生了什么样的事”表明老师要求学生关注故事中角色巴儿的新发展，这通常是通过阅读或听讲述来进行的。综合上述整段话的分析过程，这个课堂活动可能是由全体学生参与、通过阅读或听讲述来了解故事的进展，符合“学生齐读”或“学生听写”的特征，但考虑到“我们再来看看”可能更多引导学生集中注意力倾听，因此更倾向于“学生听写”。所以，在老师说完这段话后，预测的课堂活动类别是“学生听写”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1341,7 +1465,11 @@
           <t>比一比巴儿对的猜测和见到腊八粥的语句，体会巴尔内心的感受。然后小组议论完成第四题，这个得有五分钟的时间开始，</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>独立练习或小组学习</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“比一比巴儿对的猜测和见到腊八粥的语句，体会巴尔内心的感受”体现出老师发起了一个开展课堂活动的指令。首先，“比一比”和“体会”体现了老师要求学生进行比较和理解，这通常需要学生独立思考。进一步地，“然后小组议论完成第四题”表明学生在独立思考后，还要在小组内进行讨论，共同完成第四题。综合上述整段话的分析过程，这个课堂活动首先是学生独立进行思考，符合“独立练习”的特征，然后是学生以小组形式通过讨论来完成任务，符合“小组学习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习、小组学习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1368,7 +1496,11 @@
           <t>把你们找到的对象补充一下，</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“把你们找到的对象补充一下”体现出老师发起了一个开展课堂活动的指令。其中，“你们”体现出这个课堂活动是由全体学生共同参与的，而“补充一下”则表明老师要求学生对已找到的对象进行完善或添加信息。这个活动可以理解为每个学生都需要独立完成对找到的对象的补充工作，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1376,7 +1508,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1395,7 +1527,11 @@
           <t>那么请大家按照你的学习单来进行汇报，谁来，简单说就行，然后他看到的是什么样的，有不同吗？就可以，那个问他，他猜测粒子已经稀烂到认不清楚了。</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“那么请大家按照你的学习单来进行汇报”体现出老师发起了一个开展课堂活动的指令，其中，“请大家”体现出这个课堂活动是由全体学生共同参与的。进一步地，“按照你的学习单来进行汇报”体现出老师要求学生分享他们的学习成果，这通常涉及到学生发言来表述他们对学习内容的理解。接着，“谁来，简单说就行”进一步指明了老师邀请一个或多个学生来简要阐述自己的观点，符合“个体发言”的特征。综合上述整段话的分析过程，这个课堂活动是由全体学生参与，且老师邀请学生进行个体发言来分享学习成果，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1407,7 +1543,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1426,7 +1562,11 @@
           <t>花生仁儿，不需要说这些，他都根据什么判断的，是准确的生生活验经验。</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师的话语是对学生回答的评价和补充说明，没有直接发起新的课堂活动。因此，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -1453,7 +1593,11 @@
           <t>没想到颜色是褐色，请坐，他唯一没想到的就是这一点，对吧？好了，那么你觉着他在猜州的时候，他有一个语言描写，谁来说一下，这是哪句语言描写，懂没？嗯，</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“谁来说一下”体现出老师发起了一个开展课堂活动的指令，邀请一个学生来发言。结合前文的“他有一个语言描写，谁来说一下，这是哪句语言描写”，老师要求学生指出特定的语言描写。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1461,7 +1605,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1480,7 +1624,11 @@
           <t>但是最后当他看到之后发现跟他想的有些不一样，所以就感到非常的意义很好。那么请同学们看啊，我们从第二自然段一直研究到第十七，自然段都是在写啥？这个巴这里阿尔不是写啥呢？</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“那么请同学们看啊，我们从第二自然段一直研究到第十七，自然段都是在写啥？“体现出老师发起了一个开展课堂活动的指令，邀请全体学生参与。进一步地，”这个巴这里阿尔不是写啥呢？“虽然没有明确指出是全体学生还是个别学生，但根据前文的“请同学们看”，可以推断老师期望全体学生参与到这个问题的思考中来。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自进行思考的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1488,7 +1636,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1507,7 +1655,11 @@
           <t>写在一个文章里详细详写，下面这个是略写，为啥这么写？有详有略详略得当。那详略得当就是说在一个文中重点的啊能突出作者中心的他的想法的。</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“写在一个文章里详细详写，下面这个是略写，为啥这么写？”这部分体现了老师在询问学生关于写作技巧的问题，尤其是关于详略得当的运用。而“有详有略详略得当。那详略得当就是说在一个文中重点的啊能突出作者中心的他的想法的。”这部分是老师在解释详略得当的概念，强调了详略得当在突出文章主题方面的重要性。综合上述整段话的分析过程，这段话中并没有明显的课堂活动指令，老师的话语更像是在讲解和阐述写作的原则和理念。
